--- a/excel/15. 충전사용내역_기능정의서.xlsx
+++ b/excel/15. 충전사용내역_기능정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\JUN\01. RUN\AX LAB\messaging service\documents\20251119\spec\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE04B21-08EC-4979-90EE-4F88DECD12FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255F251-9769-4867-B312-0E959A99F3B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능정의서" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>Role</t>
   </si>
@@ -104,6 +104,13 @@
   ㄴ 보유 포인트/캐시 잔액 실시간 표시
   ㄴ 큰 글씨로 강조 표시 "잔여포인트: 0 P"
   ㄴ 충전하기 버튼 제공 (충전 페이지로 이동)
+- **발신번호별 잔여포인트 표시**
+  ㄴ 등록된 발신번호별로 개별 잔액 표시
+  ㄴ 발신번호, 명의자, 잔여포인트를 테이블 또는 카드 형태로 표시
+  ㄴ 발신번호별 잔액 합계 = 전체 잔액
+  ㄴ 발신번호별 잔액이 0원 이하일 경우 경고 표시
+  ㄴ 발신번호별 잔액 실시간 업데이트
+  ㄴ 발신번호별 사용 가능 건수 표시 (선택사항)
 - 사용 가능 건수 표시
   ㄴ 문자 타입별 발송 가능 건수 표시
   ㄴ SMS: N건 / LMS: N건 / MMS: N건
@@ -142,6 +149,9 @@
   ㄴ 충전금액: 충전한 금액 (원 단위)
   ㄴ 충전방법: 신용카드 / 계좌이체 / 무통장입금 등
   ㄴ 충전상태: 충전완료 / 입금대기 / 입금확인중 / 충전취소
+  ㄴ **발신번호별 분배 내역**: 충전 금액이 발신번호별로 분배된 경우 분배 내역 표시
+    → "발신번호별 분배" 버튼 또는 아이콘 클릭 시 상세 분배 내역 팝업
+    → 각 발신번호별 분배 금액 표시
   ㄴ 비고: 부가 정보 (프로모션, 보너스 지급 등)
   ㄴ 영수증: 영수증 보기 버튼 (새 창)
 - 충전상태별 색상 구분
@@ -160,9 +170,11 @@
   ㄴ 날짜: 사용일시 (YYYY-MM-DD HH:mm)
   ㄴ 제목: 발송 내역 요약 (메시지 타입 + 수신자 수)
   ㄴ 내용: 메시지 내용 미리보기 (30자 제한)
+  ㄴ **발신번호**: 사용된 발신번호 표시
   ㄴ 충전 구분: 문자/카카오톡 등 서비스 구분
   ㄴ 사용금액: 차감된 포인트/캐시 (- 표시)
-  ㄴ 잔액: 사용 후 잔액
+  ㄴ **발신번호별 잔액**: 해당 발신번호의 사용 후 잔액 표시
+  ㄴ 전체 잔액: 전체 사용 후 잔액
   ㄴ 상세보기: 발송 상세 내역 확인 버튼
 - 서비스별 필터링
   ㄴ 전체 / SMS / LMS / MMS / 알림톡 / 브랜드톡
@@ -428,191 +440,203 @@
 - 관리자 승인 프로세스 연동</t>
   </si>
   <si>
-    <t>```</t>
-  </si>
-  <si>
-    <t>[충전/사용 내역 페이지 진입]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ↓</t>
-  </si>
-  <si>
-    <t>[현재 잔액 및 사용 가능 건수 확인]</t>
-  </si>
-  <si>
-    <t>[조회 기간 설정] → 빠른선택(1주일/1개월/3개월/6개월) 또는 직접선택</t>
-  </si>
-  <si>
-    <t>[탭 선택] → 충전내역 / 사용내역 / 환불내역 / 보너스내역 / 입금확인요청</t>
-  </si>
-  <si>
-    <t>┌─────────────┬─────────────┬─────────────┬─────────────┬─────────────┐</t>
-  </si>
-  <si>
-    <t>│  충전내역    │  사용내역    │  환불내역    │  보너스내역  │ 입금확인요청 │</t>
-  </si>
-  <si>
-    <t>└─────────────┴─────────────┴─────────────┴─────────────┴─────────────┘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ↓               ↓               ↓</t>
-  </si>
-  <si>
-    <t>[목록 조회] → [필터/검색] → [영수증 보기] [상세보기] [환불 신청]</t>
-  </si>
-  <si>
-    <t>[통계 확인] (선택사항)</t>
-  </si>
-  <si>
-    <t>[엑셀/PDF 다운로드] (선택사항)</t>
-  </si>
-  <si>
-    <t>[세금계산서 발행] (필요 시)</t>
-  </si>
-  <si>
-    <t>### 1. 데이터 정합성</t>
-  </si>
-  <si>
-    <t>- 잔액 계산 정확성 (충전 - 사용 = 잔액)</t>
-  </si>
-  <si>
-    <t>- 사용내역과 발송내역 일치 여부</t>
-  </si>
-  <si>
-    <t>- 날짜 및 금액 데이터 유효성</t>
-  </si>
-  <si>
-    <t>### 2. 조회 성능</t>
-  </si>
-  <si>
-    <t>- 대용량 데이터 조회 시 성능 최적화</t>
-  </si>
-  <si>
-    <t>- 페이징 처리로 데이터 로딩 분산</t>
-  </si>
-  <si>
-    <t>- 인덱스 활용한 빠른 검색</t>
-  </si>
-  <si>
-    <t>### 3. 권한 관리</t>
-  </si>
-  <si>
-    <t>- 본인의 내역만 조회 가능</t>
-  </si>
-  <si>
-    <t>- 관리자 권한 별도 설정</t>
-  </si>
-  <si>
-    <t>- 세션 만료 시 재로그인 유도</t>
-  </si>
-  <si>
-    <t>### 4. 사용자 경험</t>
-  </si>
-  <si>
-    <t>- 직관적인 UI/UX</t>
-  </si>
-  <si>
-    <t>- 실시간 잔액 업데이트</t>
-  </si>
-  <si>
-    <t>- 명확한 상태 표시 (색상 구분)</t>
-  </si>
-  <si>
-    <t>- 오류 발생 시 명확한 안내</t>
-  </si>
-  <si>
-    <t>### 데이터 저장</t>
-  </si>
-  <si>
-    <t>- 충전/사용 내역 영구 보관</t>
-  </si>
-  <si>
-    <t>- 법적 보관 의무 기간 준수 (5년)</t>
-  </si>
-  <si>
-    <t>- 개인정보 암호화 저장</t>
-  </si>
-  <si>
-    <t>### 통계 및 분석</t>
-  </si>
-  <si>
-    <t>- 월별/분기별/연도별 통계</t>
-  </si>
-  <si>
-    <t>- 서비스별 사용 패턴 분석</t>
-  </si>
-  <si>
-    <t>- 사용자 세그먼트별 분석</t>
-  </si>
-  <si>
-    <t>### 알림 기능</t>
-  </si>
-  <si>
-    <t>- 잔액 부족 시 알림 (이메일/SMS)</t>
-  </si>
-  <si>
-    <t>- 보너스 만료 임박 알림</t>
-  </si>
-  <si>
-    <t>- 환불 처리 완료 알림</t>
-  </si>
-  <si>
-    <t>- 입금 확인 완료 알림</t>
-  </si>
-  <si>
-    <t>### 연동 페이지</t>
-  </si>
-  <si>
-    <t>- 충전하기 페이지</t>
-  </si>
-  <si>
-    <t>- 세금계산서 발행 페이지</t>
-  </si>
-  <si>
-    <t>- 발송내역 페이지</t>
-  </si>
-  <si>
-    <t>- 마이페이지</t>
-  </si>
-  <si>
-    <t>### 기술적 고려사항</t>
-  </si>
-  <si>
-    <t>- 페이징 및 무한 스크롤</t>
-  </si>
-  <si>
-    <t>- 엑셀/PDF 생성 라이브러리</t>
-  </si>
-  <si>
-    <t>- 차트 라이브러리 (Chart.js, D3.js 등)</t>
-  </si>
-  <si>
-    <t>- 반응형 웹 디자인</t>
-  </si>
-  <si>
-    <t>- API 응답 속도 최적화 (캐싱 활용)</t>
-  </si>
-  <si>
-    <t>### 법적 요구사항</t>
-  </si>
-  <si>
-    <t>- 전자상거래법 준수</t>
-  </si>
-  <si>
-    <t>- 개인정보보호법 준수</t>
-  </si>
-  <si>
-    <t>- 통신비밀보호법 준수</t>
-  </si>
-  <si>
-    <t>- 영수증 발행 의무 준수</t>
+    <t>[충전/사용 내역 페이지 진입]
+        ↓
+[현재 잔액 및 사용 가능 건수 확인]
+        ↓
+[조회 기간 설정] → 빠른선택(1주일/1개월/3개월/6개월) 또는 직접선택
+        ↓
+[탭 선택] → 충전내역 / 사용내역 / 환불내역 / 보너스내역 / 입금확인요청
+        ↓
+┌─────────────┬─────────────┬─────────────┬─────────────┬─────────────┐
+│  충전내역    │  사용내역    │  환불내역    │  보너스내역  │ 입금확인요청 │
+└─────────────┴─────────────┴─────────────┴─────────────┴─────────────┘
+        ↓               ↓               ↓
+[목록 조회] → [필터/검색] → [영수증 보기] [상세보기] [환불 신청]
+        ↓               ↓               ↓
+[통계 확인] (선택사항)
+        ↓
+[엑셀/PDF 다운로드] (선택사항)
+        ↓
+[세금계산서 발행] (필요 시)</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>검증 항목</t>
+  </si>
+  <si>
+    <t>상세 내용</t>
+  </si>
+  <si>
+    <t>1. 데이터 정합성</t>
+  </si>
+  <si>
+    <t>잔액 계산 정확성</t>
+  </si>
+  <si>
+    <t>충전 - 사용 = 잔액</t>
+  </si>
+  <si>
+    <t>사용내역과 발송내역 일치 여부</t>
+  </si>
+  <si>
+    <t>날짜 및 금액 데이터 유효성</t>
+  </si>
+  <si>
+    <t>2. 조회 성능</t>
+  </si>
+  <si>
+    <t>대용량 데이터 조회 시 성능 최적화</t>
+  </si>
+  <si>
+    <t>페이징 처리로 데이터 로딩 분산</t>
+  </si>
+  <si>
+    <t>인덱스 활용한 빠른 검색</t>
+  </si>
+  <si>
+    <t>3. 권한 관리</t>
+  </si>
+  <si>
+    <t>본인의 내역만 조회 가능</t>
+  </si>
+  <si>
+    <t>관리자 권한 별도 설정</t>
+  </si>
+  <si>
+    <t>세션 만료 시 재로그인 유도</t>
+  </si>
+  <si>
+    <t>4. 사용자 경험</t>
+  </si>
+  <si>
+    <t>직관적인 UI/UX</t>
+  </si>
+  <si>
+    <t>실시간 잔액 업데이트</t>
+  </si>
+  <si>
+    <t>명확한 상태 표시</t>
+  </si>
+  <si>
+    <t>색상 구분</t>
+  </si>
+  <si>
+    <t>오류 발생 시 명확한 안내</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>데이터 저장</t>
+  </si>
+  <si>
+    <t>충전/사용 내역 영구 보관</t>
+  </si>
+  <si>
+    <t>법적 보관 의무 기간 준수</t>
+  </si>
+  <si>
+    <t>5년</t>
+  </si>
+  <si>
+    <t>개인정보 암호화 저장</t>
+  </si>
+  <si>
+    <t>통계 및 분석</t>
+  </si>
+  <si>
+    <t>월별/분기별/연도별 통계</t>
+  </si>
+  <si>
+    <t>서비스별 사용 패턴 분석</t>
+  </si>
+  <si>
+    <t>사용자 세그먼트별 분석</t>
+  </si>
+  <si>
+    <t>알림 기능</t>
+  </si>
+  <si>
+    <t>잔액 부족 시 알림</t>
+  </si>
+  <si>
+    <t>이메일/SMS</t>
+  </si>
+  <si>
+    <t>보너스 만료 임박 알림</t>
+  </si>
+  <si>
+    <t>환불 처리 완료 알림</t>
+  </si>
+  <si>
+    <t>입금 확인 완료 알림</t>
+  </si>
+  <si>
+    <t>연동 페이지</t>
+  </si>
+  <si>
+    <t>충전하기 페이지</t>
+  </si>
+  <si>
+    <t>세금계산서 발행 페이지</t>
+  </si>
+  <si>
+    <t>발송내역 페이지</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>기술적 고려사항</t>
+  </si>
+  <si>
+    <t>페이징 및 무한 스크롤</t>
+  </si>
+  <si>
+    <t>엑셀/PDF 생성 라이브러리</t>
+  </si>
+  <si>
+    <t>차트 라이브러리</t>
+  </si>
+  <si>
+    <t>Chart.js, D3.js 등</t>
+  </si>
+  <si>
+    <t>반응형 웹 디자인</t>
+  </si>
+  <si>
+    <t>API 응답 속도 최적화</t>
+  </si>
+  <si>
+    <t>캐싱 활용</t>
+  </si>
+  <si>
+    <t>법적 요구사항</t>
+  </si>
+  <si>
+    <t>전자상거래법 준수</t>
+  </si>
+  <si>
+    <t>개인정보보호법 준수</t>
+  </si>
+  <si>
+    <t>통신비밀보호법 준수</t>
+  </si>
+  <si>
+    <t>영수증 발행 의무 준수</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,22 +647,8 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -648,7 +658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,14 +667,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFE7E6E6"/>
+        <fgColor rgb="FF366092"/>
+        <bgColor rgb="FF366092"/>
       </patternFill>
     </fill>
   </fills>
@@ -678,16 +682,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,22 +699,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,635 +1017,616 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="75.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="278.39999999999998" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="150" customWidth="1"/>
+    <col min="1" max="1" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" ht="365.4" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="150" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="150" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>